--- a/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766326</v>
+        <v>766329</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429219098</v>
+        <v>1429227365</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16937</v>
+        <v>16941</v>
       </c>
       <c r="D93" t="n">
         <v>2945</v>
       </c>
       <c r="E93" t="n">
-        <v>50658037</v>
+        <v>50660115</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9342</v>
+        <v>9344</v>
       </c>
       <c r="D100" t="n">
         <v>1304</v>
       </c>
       <c r="E100" t="n">
-        <v>23821759</v>
+        <v>23829850</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81803</v>
+        <v>81805</v>
       </c>
       <c r="D115" t="n">
         <v>14448</v>
       </c>
       <c r="E115" t="n">
-        <v>436584297</v>
+        <v>436644943</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306275</v>
+        <v>1306282</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2275089624</v>
+        <v>2275122346</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633618</v>
+        <v>633627</v>
       </c>
       <c r="D129" t="n">
         <v>104968</v>
       </c>
       <c r="E129" t="n">
-        <v>3431654793</v>
+        <v>3432082404</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="D130" t="n">
         <v>619</v>
       </c>
       <c r="E130" t="n">
-        <v>141208832</v>
+        <v>141297718</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585860</v>
+        <v>585880</v>
       </c>
       <c r="D132" t="n">
         <v>90783</v>
       </c>
       <c r="E132" t="n">
-        <v>3468058078</v>
+        <v>3468923168</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26694</v>
+        <v>26695</v>
       </c>
       <c r="D136" t="n">
         <v>4273</v>
       </c>
       <c r="E136" t="n">
-        <v>144319346</v>
+        <v>144329346</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515884</v>
+        <v>515885</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891199220</v>
+        <v>891200284</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283316</v>
+        <v>283320</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438387745</v>
+        <v>1438419995</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205915</v>
+        <v>205917</v>
       </c>
       <c r="D240" t="n">
         <v>33984</v>
       </c>
       <c r="E240" t="n">
-        <v>1069385257</v>
+        <v>1069507520</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
